--- a/기획/1조_wbs.xlsx
+++ b/기획/1조_wbs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cabbage\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\프로젝트\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22C684B-5ADB-4C81-A5AC-D45797E18CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D774545-7434-486A-BF97-BCA7F9F0754C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD401D55-962D-48F4-962D-26F9AB31A631}"/>
   </bookViews>
@@ -2021,6 +2021,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2030,102 +2099,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2138,10 +2141,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2465,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB76614-8815-4A50-B62D-E68F1A7EF808}">
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2478,55 +2478,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="26" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="26" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="26" t="s">
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="26" t="s">
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="28"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="51"/>
     </row>
     <row r="2" spans="1:31" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2562,8 +2562,8 @@
       <c r="AE2" s="12"/>
     </row>
     <row r="3" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
@@ -2597,8 +2597,8 @@
       <c r="AE3" s="13"/>
     </row>
     <row r="4" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -2632,8 +2632,8 @@
       <c r="AE4" s="13"/>
     </row>
     <row r="5" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2667,8 +2667,8 @@
       <c r="AE5" s="13"/>
     </row>
     <row r="6" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2704,8 +2704,8 @@
       <c r="AE6" s="13"/>
     </row>
     <row r="7" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2739,8 +2739,8 @@
       <c r="AE7" s="13"/>
     </row>
     <row r="8" spans="1:31" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
@@ -2774,16 +2774,16 @@
       <c r="AE8" s="13"/>
     </row>
     <row r="9" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -2809,14 +2809,14 @@
       <c r="AE9" s="24"/>
     </row>
     <row r="10" spans="1:31" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="44"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
@@ -2842,15 +2842,15 @@
       <c r="AE10" s="25"/>
     </row>
     <row r="11" spans="1:31" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -2877,13 +2877,13 @@
       <c r="AE11" s="24"/>
     </row>
     <row r="12" spans="1:31" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="51"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -2910,7 +2910,7 @@
       <c r="AE12" s="25"/>
     </row>
     <row r="13" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
@@ -2945,10 +2945,10 @@
       <c r="AE13" s="13"/>
     </row>
     <row r="14" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2984,8 +2984,8 @@
       <c r="AE14" s="13"/>
     </row>
     <row r="15" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
@@ -3019,8 +3019,8 @@
       <c r="AE15" s="13"/>
     </row>
     <row r="16" spans="1:31" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3056,8 +3056,8 @@
       <c r="AE16" s="13"/>
     </row>
     <row r="17" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
@@ -3091,8 +3091,8 @@
       <c r="AE17" s="13"/>
     </row>
     <row r="18" spans="1:31" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="39" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -3128,8 +3128,8 @@
       <c r="AE18" s="13"/>
     </row>
     <row r="19" spans="1:31" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
@@ -3146,7 +3146,7 @@
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
-      <c r="Q19" s="13"/>
+      <c r="Q19" s="17"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
@@ -3163,8 +3163,8 @@
       <c r="AE19" s="13"/>
     </row>
     <row r="20" spans="1:31" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3181,9 +3181,9 @@
       <c r="N20" s="13"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -3198,10 +3198,10 @@
       <c r="AE20" s="13"/>
     </row>
     <row r="21" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -3215,14 +3215,14 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
@@ -3237,8 +3237,8 @@
       <c r="AE21" s="13"/>
     </row>
     <row r="22" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="47"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3271,8 +3271,8 @@
       <c r="AE22" s="13"/>
     </row>
     <row r="23" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="47"/>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="42" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -3288,14 +3288,14 @@
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
       <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -3308,8 +3308,8 @@
       <c r="AE23" s="13"/>
     </row>
     <row r="24" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="47"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="4" t="s">
         <v>41</v>
       </c>
@@ -3323,14 +3323,14 @@
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
@@ -3342,8 +3342,8 @@
       <c r="AE24" s="13"/>
     </row>
     <row r="25" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="47"/>
-      <c r="B25" s="40" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -3362,14 +3362,14 @@
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="21"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
@@ -3379,8 +3379,8 @@
       <c r="AE25" s="13"/>
     </row>
     <row r="26" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="47"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
@@ -3392,30 +3392,30 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
     </row>
     <row r="27" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="3" t="s">
         <v>37</v>
       </c>
@@ -3430,27 +3430,27 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
     </row>
     <row r="28" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="4" t="s">
         <v>38</v>
       </c>
@@ -3465,26 +3465,27 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
     </row>
     <row r="29" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="48"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
@@ -3502,13 +3503,13 @@
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
@@ -3518,7 +3519,7 @@
       <c r="AE29" s="13"/>
     </row>
     <row r="30" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -3555,7 +3556,7 @@
       <c r="AE30" s="13"/>
     </row>
     <row r="31" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="18" t="s">
         <v>13</v>
       </c>
@@ -3590,7 +3591,7 @@
       <c r="AE31" s="13"/>
     </row>
     <row r="32" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="19" t="s">
         <v>14</v>
       </c>
@@ -3630,21 +3631,53 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="F9:F10"/>
@@ -3661,54 +3694,22 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z9:Z10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3727,45 +3728,45 @@
   <sheetData>
     <row r="5" spans="4:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="4:34" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="61" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="62" t="s">
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="65" t="s">
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="60"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="54"/>
     </row>
     <row r="7" spans="4:34" s="6" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="7"/>
@@ -3801,56 +3802,56 @@
       <c r="AH7" s="9"/>
     </row>
     <row r="8" spans="4:34" ht="211.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="52" t="s">
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="55" t="s">
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="56"/>
-      <c r="M8" s="52" t="s">
+      <c r="L8" s="60"/>
+      <c r="M8" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="53"/>
+      <c r="N8" s="57"/>
       <c r="O8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="52" t="s">
+      <c r="Q8" s="57"/>
+      <c r="R8" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="53"/>
-      <c r="T8" s="52" t="s">
+      <c r="S8" s="57"/>
+      <c r="T8" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="54"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="55" t="s">
+      <c r="U8" s="56"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="55" t="s">
+      <c r="X8" s="60"/>
+      <c r="Y8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="55" t="s">
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="56"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="60"/>
       <c r="AF8" s="4" t="s">
         <v>12</v>
       </c>
@@ -3883,10 +3884,10 @@
       <c r="J9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="51"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="3"/>
       <c r="P9" s="4" t="s">
         <v>26</v>
@@ -3942,12 +3943,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="D6:O6"/>
@@ -3958,6 +3953,12 @@
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획/1조_wbs.xlsx
+++ b/기획/1조_wbs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\프로젝트\기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cabbage\Documents\GitHub\Team_i-works\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D774545-7434-486A-BF97-BCA7F9F0754C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EE7A96-D6D6-47C3-8446-CAD9244F244D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD401D55-962D-48F4-962D-26F9AB31A631}"/>
   </bookViews>
@@ -2021,127 +2021,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2465,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB76614-8815-4A50-B62D-E68F1A7EF808}">
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9:AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2478,55 +2478,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="49" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="49" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="49" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="49" t="s">
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="49" t="s">
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="51"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="28"/>
     </row>
     <row r="2" spans="1:31" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2562,8 +2562,8 @@
       <c r="AE2" s="12"/>
     </row>
     <row r="3" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
@@ -2597,8 +2597,8 @@
       <c r="AE3" s="13"/>
     </row>
     <row r="4" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -2632,8 +2632,8 @@
       <c r="AE4" s="13"/>
     </row>
     <row r="5" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2667,8 +2667,8 @@
       <c r="AE5" s="13"/>
     </row>
     <row r="6" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2704,8 +2704,8 @@
       <c r="AE6" s="13"/>
     </row>
     <row r="7" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2739,8 +2739,8 @@
       <c r="AE7" s="13"/>
     </row>
     <row r="8" spans="1:31" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
@@ -2774,16 +2774,16 @@
       <c r="AE8" s="13"/>
     </row>
     <row r="9" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -2809,14 +2809,14 @@
       <c r="AE9" s="24"/>
     </row>
     <row r="10" spans="1:31" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
@@ -2842,15 +2842,15 @@
       <c r="AE10" s="25"/>
     </row>
     <row r="11" spans="1:31" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -2877,13 +2877,13 @@
       <c r="AE11" s="24"/>
     </row>
     <row r="12" spans="1:31" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -2910,7 +2910,7 @@
       <c r="AE12" s="25"/>
     </row>
     <row r="13" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
@@ -2945,10 +2945,10 @@
       <c r="AE13" s="13"/>
     </row>
     <row r="14" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2984,8 +2984,8 @@
       <c r="AE14" s="13"/>
     </row>
     <row r="15" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
@@ -3019,8 +3019,8 @@
       <c r="AE15" s="13"/>
     </row>
     <row r="16" spans="1:31" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3056,8 +3056,8 @@
       <c r="AE16" s="13"/>
     </row>
     <row r="17" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
@@ -3091,8 +3091,8 @@
       <c r="AE17" s="13"/>
     </row>
     <row r="18" spans="1:31" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -3128,8 +3128,8 @@
       <c r="AE18" s="13"/>
     </row>
     <row r="19" spans="1:31" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
@@ -3163,8 +3163,8 @@
       <c r="AE19" s="13"/>
     </row>
     <row r="20" spans="1:31" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3198,10 +3198,10 @@
       <c r="AE20" s="13"/>
     </row>
     <row r="21" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="40" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -3223,10 +3223,10 @@
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
@@ -3237,8 +3237,8 @@
       <c r="AE21" s="13"/>
     </row>
     <row r="22" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="40"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3271,8 +3271,8 @@
       <c r="AE22" s="13"/>
     </row>
     <row r="23" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -3308,8 +3308,8 @@
       <c r="AE23" s="13"/>
     </row>
     <row r="24" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="40"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="4" t="s">
         <v>41</v>
       </c>
@@ -3338,12 +3338,12 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
     </row>
     <row r="25" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
-      <c r="B25" s="42" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -3379,8 +3379,8 @@
       <c r="AE25" s="13"/>
     </row>
     <row r="26" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="40"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
@@ -3414,8 +3414,8 @@
       <c r="AE26" s="20"/>
     </row>
     <row r="27" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="3" t="s">
         <v>37</v>
       </c>
@@ -3436,10 +3436,10 @@
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
@@ -3449,8 +3449,8 @@
       <c r="AE27" s="20"/>
     </row>
     <row r="28" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="4" t="s">
         <v>38</v>
       </c>
@@ -3471,8 +3471,8 @@
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
@@ -3484,8 +3484,8 @@
       <c r="AE28" s="20"/>
     </row>
     <row r="29" spans="1:31" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="41"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
@@ -3513,13 +3513,13 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
     </row>
     <row r="30" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -3556,7 +3556,7 @@
       <c r="AE30" s="13"/>
     </row>
     <row r="31" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="18" t="s">
         <v>13</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="AE31" s="13"/>
     </row>
     <row r="32" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="19" t="s">
         <v>14</v>
       </c>
@@ -3631,26 +3631,49 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
@@ -3667,49 +3690,26 @@
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z9:Z10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3728,7 +3728,7 @@
   <sheetData>
     <row r="5" spans="4:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="4:34" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="52" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="53"/>
@@ -3742,7 +3742,7 @@
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
       <c r="O6" s="54"/>
-      <c r="P6" s="62" t="s">
+      <c r="P6" s="55" t="s">
         <v>43</v>
       </c>
       <c r="Q6" s="53"/>
@@ -3751,18 +3751,18 @@
       <c r="T6" s="53"/>
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
-      <c r="W6" s="63" t="s">
+      <c r="W6" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="52" t="s">
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="65" t="s">
         <v>3</v>
       </c>
       <c r="AG6" s="53"/>
@@ -3802,56 +3802,56 @@
       <c r="AH7" s="9"/>
     </row>
     <row r="8" spans="4:34" ht="211.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="59" t="s">
+      <c r="I8" s="61"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="58" t="s">
+      <c r="L8" s="63"/>
+      <c r="M8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="57"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="58" t="s">
+      <c r="P8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="58" t="s">
+      <c r="Q8" s="60"/>
+      <c r="R8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="57"/>
-      <c r="T8" s="58" t="s">
+      <c r="S8" s="60"/>
+      <c r="T8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="56"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="59" t="s">
+      <c r="U8" s="61"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="59" t="s">
+      <c r="X8" s="63"/>
+      <c r="Y8" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="59" t="s">
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="60"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="63"/>
       <c r="AF8" s="4" t="s">
         <v>12</v>
       </c>
@@ -3884,10 +3884,10 @@
       <c r="J9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="27"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="51"/>
       <c r="O9" s="3"/>
       <c r="P9" s="4" t="s">
         <v>26</v>
@@ -3943,6 +3943,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="D6:O6"/>
@@ -3953,12 +3959,6 @@
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
